--- a/Plugin/J16/LevelWithoutFilter/res/统计表格.xlsx
+++ b/Plugin/J16/LevelWithoutFilter/res/统计表格.xlsx
@@ -164,14 +164,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -189,28 +182,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor indexed="50"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor indexed="53"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="53"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="52"/>
         </patternFill>
       </fill>
     </dxf>
@@ -513,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BL175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -526,30 +498,6 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>1806001</v>
-      </c>
-      <c r="C1" s="2">
-        <v>1806002</v>
-      </c>
-      <c r="D1" s="2">
-        <v>1806003</v>
-      </c>
-      <c r="E1" s="2">
-        <v>1806004</v>
-      </c>
-      <c r="F1" s="2">
-        <v>1806005</v>
-      </c>
-      <c r="G1" s="2">
-        <v>1806006</v>
-      </c>
-      <c r="H1" s="2">
-        <v>1806007</v>
-      </c>
-      <c r="I1" s="2">
-        <v>1806008</v>
-      </c>
       <c r="J1" s="2">
         <v>1806009</v>
       </c>
@@ -719,30 +667,6 @@
     <row r="2" spans="1:64">
       <c r="A2" s="2">
         <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2">
-        <v>34</v>
       </c>
       <c r="J2" s="2">
         <v>38</v>
@@ -917,30 +841,6 @@
       <c r="A3" s="2">
         <v>-10</v>
       </c>
-      <c r="B3" s="2">
-        <v>-59</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-59</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-59</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-59</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-61</v>
-      </c>
-      <c r="G3" s="2">
-        <v>-59</v>
-      </c>
-      <c r="H3" s="2">
-        <v>-61</v>
-      </c>
-      <c r="I3" s="2">
-        <v>-61</v>
-      </c>
       <c r="J3" s="2">
         <v>-57</v>
       </c>
@@ -1114,30 +1014,6 @@
       <c r="A4" s="2">
         <v>-20</v>
       </c>
-      <c r="B4" s="2">
-        <v>-151</v>
-      </c>
-      <c r="C4" s="2">
-        <v>-151</v>
-      </c>
-      <c r="D4" s="2">
-        <v>-151</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-151</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-153</v>
-      </c>
-      <c r="G4" s="2">
-        <v>-153</v>
-      </c>
-      <c r="H4" s="2">
-        <v>-155</v>
-      </c>
-      <c r="I4" s="2">
-        <v>-151</v>
-      </c>
       <c r="J4" s="2">
         <v>-151</v>
       </c>
@@ -1297,7 +1173,7 @@
       </c>
       <c r="BJ4" s="2">
         <f t="shared" si="1"/>
-        <v>-155</v>
+        <v>-153</v>
       </c>
       <c r="BK4" s="2">
         <f t="shared" si="2"/>
@@ -1305,37 +1181,13 @@
       </c>
       <c r="BL4" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:64">
       <c r="A5" s="2">
         <v>-30</v>
       </c>
-      <c r="B5" s="2">
-        <v>-243</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-243</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-243</v>
-      </c>
-      <c r="E5" s="2">
-        <v>-243</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-243</v>
-      </c>
-      <c r="G5" s="2">
-        <v>-243</v>
-      </c>
-      <c r="H5" s="2">
-        <v>-247</v>
-      </c>
-      <c r="I5" s="2">
-        <v>-245</v>
-      </c>
       <c r="J5" s="2">
         <v>-243</v>
       </c>
@@ -1509,30 +1361,6 @@
       <c r="A6" s="2">
         <v>-40</v>
       </c>
-      <c r="B6" s="2">
-        <v>-335</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-335</v>
-      </c>
-      <c r="D6" s="2">
-        <v>-339</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-331</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-333</v>
-      </c>
-      <c r="G6" s="2">
-        <v>-333</v>
-      </c>
-      <c r="H6" s="2">
-        <v>-339</v>
-      </c>
-      <c r="I6" s="2">
-        <v>-341</v>
-      </c>
       <c r="J6" s="2">
         <v>-333</v>
       </c>
@@ -1691,7 +1519,7 @@
       </c>
       <c r="BJ6" s="2">
         <f t="shared" si="1"/>
-        <v>-341</v>
+        <v>-339</v>
       </c>
       <c r="BK6" s="2">
         <f t="shared" si="2"/>
@@ -1699,37 +1527,13 @@
       </c>
       <c r="BL6" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:64">
       <c r="A7" s="2">
         <v>-50</v>
       </c>
-      <c r="B7" s="2">
-        <v>-430</v>
-      </c>
-      <c r="C7" s="2">
-        <v>-430</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-428</v>
-      </c>
-      <c r="E7" s="2">
-        <v>-430</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-430</v>
-      </c>
-      <c r="G7" s="2">
-        <v>-430</v>
-      </c>
-      <c r="H7" s="2">
-        <v>-436</v>
-      </c>
-      <c r="I7" s="2">
-        <v>-428</v>
-      </c>
       <c r="J7" s="2">
         <v>-430</v>
       </c>
@@ -1888,7 +1692,7 @@
       </c>
       <c r="BJ7" s="2">
         <f t="shared" si="1"/>
-        <v>-436</v>
+        <v>-432</v>
       </c>
       <c r="BK7" s="2">
         <f t="shared" si="2"/>
@@ -1896,37 +1700,13 @@
       </c>
       <c r="BL7" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:64">
       <c r="A8" s="2">
         <v>-60</v>
       </c>
-      <c r="B8" s="2">
-        <v>-521</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-521</v>
-      </c>
-      <c r="D8" s="2">
-        <v>-519</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-519</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-519</v>
-      </c>
-      <c r="G8" s="2">
-        <v>-519</v>
-      </c>
-      <c r="H8" s="2">
-        <v>-525</v>
-      </c>
-      <c r="I8" s="2">
-        <v>-521</v>
-      </c>
       <c r="J8" s="2">
         <v>-519</v>
       </c>
@@ -2085,7 +1865,7 @@
       </c>
       <c r="BJ8" s="2">
         <f t="shared" si="1"/>
-        <v>-525</v>
+        <v>-521</v>
       </c>
       <c r="BK8" s="2">
         <f t="shared" si="2"/>
@@ -2093,37 +1873,13 @@
       </c>
       <c r="BL8" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:64">
       <c r="A9" s="2">
         <v>-70</v>
       </c>
-      <c r="B9" s="2">
-        <v>-612</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-612</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-614</v>
-      </c>
-      <c r="E9" s="2">
-        <v>-610</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-610</v>
-      </c>
-      <c r="G9" s="2">
-        <v>-612</v>
-      </c>
-      <c r="H9" s="2">
-        <v>-604</v>
-      </c>
-      <c r="I9" s="2">
-        <v>-612</v>
-      </c>
       <c r="J9" s="2">
         <v>-610</v>
       </c>
@@ -2286,41 +2042,17 @@
       </c>
       <c r="BK9" s="2">
         <f t="shared" si="2"/>
-        <v>-604</v>
+        <v>-608</v>
       </c>
       <c r="BL9" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:64">
       <c r="A10" s="2">
         <v>-80</v>
       </c>
-      <c r="B10" s="2">
-        <v>-703</v>
-      </c>
-      <c r="C10" s="2">
-        <v>-703</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-705</v>
-      </c>
-      <c r="E10" s="2">
-        <v>-699</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-703</v>
-      </c>
-      <c r="G10" s="2">
-        <v>-705</v>
-      </c>
-      <c r="H10" s="2">
-        <v>-697</v>
-      </c>
-      <c r="I10" s="2">
-        <v>-703</v>
-      </c>
       <c r="J10" s="2">
         <v>-701</v>
       </c>
@@ -2483,41 +2215,17 @@
       </c>
       <c r="BK10" s="2">
         <f t="shared" si="2"/>
-        <v>-697</v>
+        <v>-699</v>
       </c>
       <c r="BL10" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:64">
       <c r="A11" s="2">
         <v>-90</v>
       </c>
-      <c r="B11" s="2">
-        <v>-795</v>
-      </c>
-      <c r="C11" s="2">
-        <v>-797</v>
-      </c>
-      <c r="D11" s="2">
-        <v>-795</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-795</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-795</v>
-      </c>
-      <c r="G11" s="2">
-        <v>-795</v>
-      </c>
-      <c r="H11" s="2">
-        <v>-791</v>
-      </c>
-      <c r="I11" s="2">
-        <v>-795</v>
-      </c>
       <c r="J11" s="2">
         <v>-795</v>
       </c>
@@ -2680,41 +2388,17 @@
       </c>
       <c r="BK11" s="2">
         <f t="shared" si="2"/>
-        <v>-791</v>
+        <v>-793</v>
       </c>
       <c r="BL11" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:64">
       <c r="A12" s="2">
         <v>-100</v>
       </c>
-      <c r="B12" s="2">
-        <v>-891</v>
-      </c>
-      <c r="C12" s="2">
-        <v>-885</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-903</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-889</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-883</v>
-      </c>
-      <c r="G12" s="2">
-        <v>-887</v>
-      </c>
-      <c r="H12" s="2">
-        <v>-881</v>
-      </c>
-      <c r="I12" s="2">
-        <v>-901</v>
-      </c>
       <c r="J12" s="2">
         <v>-883</v>
       </c>
@@ -2873,7 +2557,7 @@
       </c>
       <c r="BJ12" s="2">
         <f t="shared" si="1"/>
-        <v>-903</v>
+        <v>-899</v>
       </c>
       <c r="BK12" s="2">
         <f t="shared" si="2"/>
@@ -2881,37 +2565,13 @@
       </c>
       <c r="BL12" s="2">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:64">
       <c r="A13" s="2">
         <v>-100</v>
       </c>
-      <c r="B13" s="2">
-        <v>-891</v>
-      </c>
-      <c r="C13" s="2">
-        <v>-885</v>
-      </c>
-      <c r="D13" s="2">
-        <v>-903</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-889</v>
-      </c>
-      <c r="F13" s="2">
-        <v>-883</v>
-      </c>
-      <c r="G13" s="2">
-        <v>-887</v>
-      </c>
-      <c r="H13" s="2">
-        <v>-881</v>
-      </c>
-      <c r="I13" s="2">
-        <v>-901</v>
-      </c>
       <c r="J13" s="2">
         <v>-883</v>
       </c>
@@ -3070,7 +2730,7 @@
       </c>
       <c r="BJ13" s="2">
         <f t="shared" si="1"/>
-        <v>-903</v>
+        <v>-899</v>
       </c>
       <c r="BK13" s="2">
         <f t="shared" si="2"/>
@@ -3078,37 +2738,13 @@
       </c>
       <c r="BL13" s="2">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:64">
       <c r="A14" s="2">
         <v>-90</v>
       </c>
-      <c r="B14" s="2">
-        <v>-796</v>
-      </c>
-      <c r="C14" s="2">
-        <v>-796</v>
-      </c>
-      <c r="D14" s="2">
-        <v>-796</v>
-      </c>
-      <c r="E14" s="2">
-        <v>-796</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-796</v>
-      </c>
-      <c r="G14" s="2">
-        <v>-796</v>
-      </c>
-      <c r="H14" s="2">
-        <v>-791</v>
-      </c>
-      <c r="I14" s="2">
-        <v>-795</v>
-      </c>
       <c r="J14" s="2">
         <v>-795</v>
       </c>
@@ -3271,41 +2907,17 @@
       </c>
       <c r="BK14" s="2">
         <f t="shared" si="2"/>
-        <v>-791</v>
+        <v>-793</v>
       </c>
       <c r="BL14" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:64">
       <c r="A15" s="2">
         <v>-80</v>
       </c>
-      <c r="B15" s="2">
-        <v>-704</v>
-      </c>
-      <c r="C15" s="2">
-        <v>-703</v>
-      </c>
-      <c r="D15" s="2">
-        <v>-706</v>
-      </c>
-      <c r="E15" s="2">
-        <v>-700</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-704</v>
-      </c>
-      <c r="G15" s="2">
-        <v>-706</v>
-      </c>
-      <c r="H15" s="2">
-        <v>-698</v>
-      </c>
-      <c r="I15" s="2">
-        <v>-704</v>
-      </c>
       <c r="J15" s="2">
         <v>-701</v>
       </c>
@@ -3468,41 +3080,17 @@
       </c>
       <c r="BK15" s="2">
         <f t="shared" si="2"/>
-        <v>-698</v>
+        <v>-700</v>
       </c>
       <c r="BL15" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:64">
       <c r="A16" s="2">
         <v>-70</v>
       </c>
-      <c r="B16" s="2">
-        <v>-610</v>
-      </c>
-      <c r="C16" s="2">
-        <v>-612</v>
-      </c>
-      <c r="D16" s="2">
-        <v>-612</v>
-      </c>
-      <c r="E16" s="2">
-        <v>-610</v>
-      </c>
-      <c r="F16" s="2">
-        <v>-609</v>
-      </c>
-      <c r="G16" s="2">
-        <v>-611</v>
-      </c>
-      <c r="H16" s="2">
-        <v>-602</v>
-      </c>
-      <c r="I16" s="2">
-        <v>-612</v>
-      </c>
       <c r="J16" s="2">
         <v>-609</v>
       </c>
@@ -3666,41 +3254,17 @@
       </c>
       <c r="BK16" s="2">
         <f t="shared" si="2"/>
-        <v>-602</v>
+        <v>-606</v>
       </c>
       <c r="BL16" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:64">
       <c r="A17" s="2">
         <v>-60</v>
       </c>
-      <c r="B17" s="2">
-        <v>-519</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-521</v>
-      </c>
-      <c r="D17" s="2">
-        <v>-520</v>
-      </c>
-      <c r="E17" s="2">
-        <v>-518</v>
-      </c>
-      <c r="F17" s="2">
-        <v>-517</v>
-      </c>
-      <c r="G17" s="2">
-        <v>-519</v>
-      </c>
-      <c r="H17" s="2">
-        <v>-511</v>
-      </c>
-      <c r="I17" s="2">
-        <v>-519</v>
-      </c>
       <c r="J17" s="2">
         <v>-520</v>
       </c>
@@ -3863,41 +3427,17 @@
       </c>
       <c r="BK17" s="2">
         <f t="shared" si="2"/>
-        <v>-511</v>
+        <v>-516</v>
       </c>
       <c r="BL17" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:64">
       <c r="A18" s="2">
         <v>-50</v>
       </c>
-      <c r="B18" s="2">
-        <v>-429</v>
-      </c>
-      <c r="C18" s="2">
-        <v>-431</v>
-      </c>
-      <c r="D18" s="2">
-        <v>-430</v>
-      </c>
-      <c r="E18" s="2">
-        <v>-429</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-429</v>
-      </c>
-      <c r="G18" s="2">
-        <v>-430</v>
-      </c>
-      <c r="H18" s="2">
-        <v>-435</v>
-      </c>
-      <c r="I18" s="2">
-        <v>-428</v>
-      </c>
       <c r="J18" s="2">
         <v>-429</v>
       </c>
@@ -4056,7 +3596,7 @@
       </c>
       <c r="BJ18" s="2">
         <f t="shared" si="1"/>
-        <v>-435</v>
+        <v>-431</v>
       </c>
       <c r="BK18" s="2">
         <f t="shared" si="2"/>
@@ -4064,37 +3604,13 @@
       </c>
       <c r="BL18" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:64">
       <c r="A19" s="2">
         <v>-40</v>
       </c>
-      <c r="B19" s="2">
-        <v>-336</v>
-      </c>
-      <c r="C19" s="2">
-        <v>-336</v>
-      </c>
-      <c r="D19" s="2">
-        <v>-337</v>
-      </c>
-      <c r="E19" s="2">
-        <v>-335</v>
-      </c>
-      <c r="F19" s="2">
-        <v>-338</v>
-      </c>
-      <c r="G19" s="2">
-        <v>-340</v>
-      </c>
-      <c r="H19" s="2">
-        <v>-344</v>
-      </c>
-      <c r="I19" s="2">
-        <v>-336</v>
-      </c>
       <c r="J19" s="2">
         <v>-336</v>
       </c>
@@ -4254,7 +3770,7 @@
       </c>
       <c r="BJ19" s="2">
         <f t="shared" si="1"/>
-        <v>-344</v>
+        <v>-340</v>
       </c>
       <c r="BK19" s="2">
         <f t="shared" si="2"/>
@@ -4262,37 +3778,13 @@
       </c>
       <c r="BL19" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:64">
       <c r="A20" s="2">
         <v>-30</v>
       </c>
-      <c r="B20" s="2">
-        <v>-244</v>
-      </c>
-      <c r="C20" s="2">
-        <v>-244</v>
-      </c>
-      <c r="D20" s="2">
-        <v>-244</v>
-      </c>
-      <c r="E20" s="2">
-        <v>-244</v>
-      </c>
-      <c r="F20" s="2">
-        <v>-244</v>
-      </c>
-      <c r="G20" s="2">
-        <v>-244</v>
-      </c>
-      <c r="H20" s="2">
-        <v>-245</v>
-      </c>
-      <c r="I20" s="2">
-        <v>-244</v>
-      </c>
       <c r="J20" s="2">
         <v>-244</v>
       </c>
@@ -4466,30 +3958,6 @@
       <c r="A21" s="2">
         <v>-20</v>
       </c>
-      <c r="B21" s="2">
-        <v>-151</v>
-      </c>
-      <c r="C21" s="2">
-        <v>-151</v>
-      </c>
-      <c r="D21" s="2">
-        <v>-152</v>
-      </c>
-      <c r="E21" s="2">
-        <v>-151</v>
-      </c>
-      <c r="F21" s="2">
-        <v>-153</v>
-      </c>
-      <c r="G21" s="2">
-        <v>-151</v>
-      </c>
-      <c r="H21" s="2">
-        <v>-155</v>
-      </c>
-      <c r="I21" s="2">
-        <v>-151</v>
-      </c>
       <c r="J21" s="2">
         <v>-151</v>
       </c>
@@ -4648,7 +4116,7 @@
       </c>
       <c r="BJ21" s="2">
         <f t="shared" si="1"/>
-        <v>-155</v>
+        <v>-153</v>
       </c>
       <c r="BK21" s="2">
         <f t="shared" si="2"/>
@@ -4656,37 +4124,13 @@
       </c>
       <c r="BL21" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:64">
       <c r="A22" s="2">
         <v>-10</v>
       </c>
-      <c r="B22" s="2">
-        <v>-60</v>
-      </c>
-      <c r="C22" s="2">
-        <v>-59</v>
-      </c>
-      <c r="D22" s="2">
-        <v>-59</v>
-      </c>
-      <c r="E22" s="2">
-        <v>-59</v>
-      </c>
-      <c r="F22" s="2">
-        <v>-61</v>
-      </c>
-      <c r="G22" s="2">
-        <v>-59</v>
-      </c>
-      <c r="H22" s="2">
-        <v>-62</v>
-      </c>
-      <c r="I22" s="2">
-        <v>-62</v>
-      </c>
       <c r="J22" s="2">
         <v>-58</v>
       </c>
@@ -4859,32 +4303,6 @@
     <row r="23" spans="1:64">
       <c r="A23" s="2">
         <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <v>33</v>
-      </c>
-      <c r="C23" s="2">
-        <f>--35</f>
-        <v>35</v>
-      </c>
-      <c r="D23" s="2">
-        <v>31</v>
-      </c>
-      <c r="E23" s="2">
-        <f>--33</f>
-        <v>33</v>
-      </c>
-      <c r="F23" s="2">
-        <v>33</v>
-      </c>
-      <c r="G23" s="2">
-        <v>38</v>
-      </c>
-      <c r="H23" s="2">
-        <v>32</v>
-      </c>
-      <c r="I23" s="2">
-        <v>34</v>
       </c>
       <c r="J23" s="2">
         <v>37</v>
@@ -5072,30 +4490,6 @@
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="2">
-        <v>1806001</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1806002</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1806003</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1806004</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1806005</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1806006</v>
-      </c>
-      <c r="H24" s="2">
-        <v>1806007</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1806008</v>
-      </c>
       <c r="J24" s="2">
         <v>1806009</v>
       </c>
@@ -5266,30 +4660,6 @@
       <c r="A25" s="2">
         <v>-10</v>
       </c>
-      <c r="B25" s="2">
-        <v>20125</v>
-      </c>
-      <c r="C25" s="2">
-        <v>20036</v>
-      </c>
-      <c r="D25" s="2">
-        <v>20038</v>
-      </c>
-      <c r="E25" s="2">
-        <v>20054</v>
-      </c>
-      <c r="F25" s="2">
-        <v>20052</v>
-      </c>
-      <c r="G25" s="2">
-        <v>20043</v>
-      </c>
-      <c r="H25" s="2">
-        <v>20013</v>
-      </c>
-      <c r="I25" s="2">
-        <v>20040</v>
-      </c>
       <c r="J25" s="2">
         <v>20126</v>
       </c>
@@ -5463,30 +4833,6 @@
       <c r="A26" s="2">
         <v>-20</v>
       </c>
-      <c r="B26" s="2">
-        <v>15132</v>
-      </c>
-      <c r="C26" s="2">
-        <v>15095</v>
-      </c>
-      <c r="D26" s="2">
-        <v>15159</v>
-      </c>
-      <c r="E26" s="2">
-        <v>15110</v>
-      </c>
-      <c r="F26" s="2">
-        <v>15157</v>
-      </c>
-      <c r="G26" s="2">
-        <v>15300</v>
-      </c>
-      <c r="H26" s="2">
-        <v>15134</v>
-      </c>
-      <c r="I26" s="2">
-        <v>15182</v>
-      </c>
       <c r="J26" s="2">
         <v>15232</v>
       </c>
@@ -5661,30 +5007,6 @@
       <c r="A27" s="2">
         <v>-30</v>
       </c>
-      <c r="B27" s="2">
-        <v>10444</v>
-      </c>
-      <c r="C27" s="2">
-        <v>10417</v>
-      </c>
-      <c r="D27" s="2">
-        <v>10424</v>
-      </c>
-      <c r="E27" s="2">
-        <v>10238</v>
-      </c>
-      <c r="F27" s="2">
-        <v>10514</v>
-      </c>
-      <c r="G27" s="2">
-        <v>10466</v>
-      </c>
-      <c r="H27" s="2">
-        <v>10363</v>
-      </c>
-      <c r="I27" s="2">
-        <v>10389</v>
-      </c>
       <c r="J27" s="2">
         <v>10523</v>
       </c>
@@ -5843,7 +5165,7 @@
       </c>
       <c r="BJ27" s="2">
         <f t="shared" si="4"/>
-        <v>10238</v>
+        <v>10363</v>
       </c>
       <c r="BK27" s="2">
         <f t="shared" si="5"/>
@@ -5851,37 +5173,13 @@
       </c>
       <c r="BL27" s="2">
         <f t="shared" si="3"/>
-        <v>369</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:64">
       <c r="A28" s="2">
         <v>-40</v>
       </c>
-      <c r="B28" s="2">
-        <v>5777</v>
-      </c>
-      <c r="C28" s="2">
-        <v>5538</v>
-      </c>
-      <c r="D28" s="2">
-        <v>5500</v>
-      </c>
-      <c r="E28" s="2">
-        <v>5561</v>
-      </c>
-      <c r="F28" s="2">
-        <v>6102</v>
-      </c>
-      <c r="G28" s="2">
-        <v>5818</v>
-      </c>
-      <c r="H28" s="2">
-        <v>5765</v>
-      </c>
-      <c r="I28" s="2">
-        <v>5304</v>
-      </c>
       <c r="J28" s="2">
         <v>5865</v>
       </c>
@@ -6041,7 +5339,7 @@
       </c>
       <c r="BJ28" s="2">
         <f t="shared" si="4"/>
-        <v>5304</v>
+        <v>5414</v>
       </c>
       <c r="BK28" s="2">
         <f t="shared" si="5"/>
@@ -6049,37 +5347,13 @@
       </c>
       <c r="BL28" s="2">
         <f t="shared" si="3"/>
-        <v>893</v>
+        <v>783</v>
       </c>
     </row>
     <row r="29" spans="1:64">
       <c r="A29" s="2">
         <v>-50</v>
       </c>
-      <c r="B29" s="2">
-        <v>980</v>
-      </c>
-      <c r="C29" s="2">
-        <v>934</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1024</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1187</v>
-      </c>
-      <c r="F29" s="2">
-        <v>992</v>
-      </c>
-      <c r="G29" s="2">
-        <v>984</v>
-      </c>
-      <c r="H29" s="2">
-        <v>902</v>
-      </c>
-      <c r="I29" s="2">
-        <v>756</v>
-      </c>
       <c r="J29" s="2">
         <v>1042</v>
       </c>
@@ -6238,7 +5512,7 @@
       </c>
       <c r="BJ29" s="2">
         <f t="shared" si="4"/>
-        <v>756</v>
+        <v>800</v>
       </c>
       <c r="BK29" s="2">
         <f t="shared" si="5"/>
@@ -6246,37 +5520,13 @@
       </c>
       <c r="BL29" s="2">
         <f t="shared" si="3"/>
-        <v>491</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:64">
       <c r="A30" s="2">
         <v>-60</v>
       </c>
-      <c r="B30" s="2">
-        <v>-3929</v>
-      </c>
-      <c r="C30" s="2">
-        <v>-4066</v>
-      </c>
-      <c r="D30" s="2">
-        <v>-3999</v>
-      </c>
-      <c r="E30" s="2">
-        <v>-3938</v>
-      </c>
-      <c r="F30" s="2">
-        <v>-3979</v>
-      </c>
-      <c r="G30" s="2">
-        <v>-3929</v>
-      </c>
-      <c r="H30" s="2">
-        <v>-4012</v>
-      </c>
-      <c r="I30" s="2">
-        <v>-3967</v>
-      </c>
       <c r="J30" s="2">
         <v>-3908</v>
       </c>
@@ -6450,30 +5700,6 @@
       <c r="A31" s="2">
         <v>-70</v>
       </c>
-      <c r="B31" s="2">
-        <v>-9097</v>
-      </c>
-      <c r="C31" s="2">
-        <v>-9233</v>
-      </c>
-      <c r="D31" s="2">
-        <v>-9228</v>
-      </c>
-      <c r="E31" s="2">
-        <v>-9076</v>
-      </c>
-      <c r="F31" s="2">
-        <v>-9183</v>
-      </c>
-      <c r="G31" s="2">
-        <v>-9184</v>
-      </c>
-      <c r="H31" s="2">
-        <v>-9275</v>
-      </c>
-      <c r="I31" s="2">
-        <v>-9129</v>
-      </c>
       <c r="J31" s="2">
         <v>-9053</v>
       </c>
@@ -6647,30 +5873,6 @@
       <c r="A32" s="2">
         <v>-80</v>
       </c>
-      <c r="B32" s="2">
-        <v>-13800</v>
-      </c>
-      <c r="C32" s="2">
-        <v>-13636</v>
-      </c>
-      <c r="D32" s="2">
-        <v>-13517</v>
-      </c>
-      <c r="E32" s="2">
-        <v>-13578</v>
-      </c>
-      <c r="F32" s="2">
-        <v>-13535</v>
-      </c>
-      <c r="G32" s="2">
-        <v>-13961</v>
-      </c>
-      <c r="H32" s="2">
-        <v>-13707</v>
-      </c>
-      <c r="I32" s="2">
-        <v>-13491</v>
-      </c>
       <c r="J32" s="2">
         <v>-13774</v>
       </c>
@@ -6829,7 +6031,7 @@
       </c>
       <c r="BJ32" s="2">
         <f t="shared" si="4"/>
-        <v>-13961</v>
+        <v>-13827</v>
       </c>
       <c r="BK32" s="2">
         <f t="shared" si="5"/>
@@ -6837,37 +6039,13 @@
       </c>
       <c r="BL32" s="2">
         <f t="shared" si="3"/>
-        <v>529</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:64">
       <c r="A33" s="2">
         <v>-90</v>
       </c>
-      <c r="B33" s="2">
-        <v>-18393</v>
-      </c>
-      <c r="C33" s="2">
-        <v>-18437</v>
-      </c>
-      <c r="D33" s="2">
-        <v>-18404</v>
-      </c>
-      <c r="E33" s="2">
-        <v>-18358</v>
-      </c>
-      <c r="F33" s="2">
-        <v>-18365</v>
-      </c>
-      <c r="G33" s="2">
-        <v>-18513</v>
-      </c>
-      <c r="H33" s="2">
-        <v>-18416</v>
-      </c>
-      <c r="I33" s="2">
-        <v>-18408</v>
-      </c>
       <c r="J33" s="2">
         <v>-18362</v>
       </c>
@@ -7026,7 +6204,7 @@
       </c>
       <c r="BJ33" s="2">
         <f t="shared" si="4"/>
-        <v>-18513</v>
+        <v>-18468</v>
       </c>
       <c r="BK33" s="2">
         <f t="shared" si="5"/>
@@ -7034,37 +6212,13 @@
       </c>
       <c r="BL33" s="2">
         <f t="shared" si="3"/>
-        <v>281</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:64">
       <c r="A34" s="2">
         <v>-100</v>
       </c>
-      <c r="B34" s="2">
-        <v>-22742</v>
-      </c>
-      <c r="C34" s="2">
-        <v>-23030</v>
-      </c>
-      <c r="D34" s="2">
-        <v>-23107</v>
-      </c>
-      <c r="E34" s="2">
-        <v>-23026</v>
-      </c>
-      <c r="F34" s="2">
-        <v>-22981</v>
-      </c>
-      <c r="G34" s="2">
-        <v>-23126</v>
-      </c>
-      <c r="H34" s="2">
-        <v>-22792</v>
-      </c>
-      <c r="I34" s="2">
-        <v>-23240</v>
-      </c>
       <c r="J34" s="2">
         <v>-22781</v>
       </c>
@@ -7223,7 +6377,7 @@
       </c>
       <c r="BJ34" s="2">
         <f t="shared" si="4"/>
-        <v>-23240</v>
+        <v>-23117</v>
       </c>
       <c r="BK34" s="2">
         <f t="shared" si="5"/>
@@ -7231,37 +6385,13 @@
       </c>
       <c r="BL34" s="2">
         <f t="shared" si="3"/>
-        <v>633</v>
+        <v>510</v>
       </c>
     </row>
     <row r="35" spans="1:64">
       <c r="A35" s="2">
         <v>-100</v>
       </c>
-      <c r="B35" s="2">
-        <v>-22742</v>
-      </c>
-      <c r="C35" s="2">
-        <v>-23030</v>
-      </c>
-      <c r="D35" s="2">
-        <v>-23107</v>
-      </c>
-      <c r="E35" s="2">
-        <v>-23026</v>
-      </c>
-      <c r="F35" s="2">
-        <v>-22981</v>
-      </c>
-      <c r="G35" s="2">
-        <v>-23126</v>
-      </c>
-      <c r="H35" s="2">
-        <v>-22792</v>
-      </c>
-      <c r="I35" s="2">
-        <v>-23240</v>
-      </c>
       <c r="J35" s="2">
         <v>-22781</v>
       </c>
@@ -7420,7 +6550,7 @@
       </c>
       <c r="BJ35" s="2">
         <f t="shared" si="4"/>
-        <v>-23240</v>
+        <v>-23117</v>
       </c>
       <c r="BK35" s="2">
         <f t="shared" si="5"/>
@@ -7428,37 +6558,13 @@
       </c>
       <c r="BL35" s="2">
         <f t="shared" si="3"/>
-        <v>633</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="1:64">
       <c r="A36" s="2">
         <v>-90</v>
       </c>
-      <c r="B36" s="2">
-        <v>-18396</v>
-      </c>
-      <c r="C36" s="2">
-        <v>-18467</v>
-      </c>
-      <c r="D36" s="2">
-        <v>-18519</v>
-      </c>
-      <c r="E36" s="2">
-        <v>-18375</v>
-      </c>
-      <c r="F36" s="2">
-        <v>-18367</v>
-      </c>
-      <c r="G36" s="2">
-        <v>-18630</v>
-      </c>
-      <c r="H36" s="2">
-        <v>-18400</v>
-      </c>
-      <c r="I36" s="2">
-        <v>-18390</v>
-      </c>
       <c r="J36" s="2">
         <v>-18380</v>
       </c>
@@ -7617,7 +6723,7 @@
       </c>
       <c r="BJ36" s="2">
         <f t="shared" si="4"/>
-        <v>-18630</v>
+        <v>-18439</v>
       </c>
       <c r="BK36" s="2">
         <f t="shared" si="5"/>
@@ -7625,37 +6731,13 @@
       </c>
       <c r="BL36" s="2">
         <f t="shared" si="3"/>
-        <v>416</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:64">
       <c r="A37" s="2">
         <v>-80</v>
       </c>
-      <c r="B37" s="2">
-        <v>-13681</v>
-      </c>
-      <c r="C37" s="2">
-        <v>-13655</v>
-      </c>
-      <c r="D37" s="2">
-        <v>-13566</v>
-      </c>
-      <c r="E37" s="2">
-        <v>-13459</v>
-      </c>
-      <c r="F37" s="2">
-        <v>-13542</v>
-      </c>
-      <c r="G37" s="2">
-        <v>-13739</v>
-      </c>
-      <c r="H37" s="2">
-        <v>-13705</v>
-      </c>
-      <c r="I37" s="2">
-        <v>-13481</v>
-      </c>
       <c r="J37" s="2">
         <v>-13764</v>
       </c>
@@ -7829,30 +6911,6 @@
       <c r="A38" s="2">
         <v>-70</v>
       </c>
-      <c r="B38" s="2">
-        <v>-9025</v>
-      </c>
-      <c r="C38" s="2">
-        <v>-8954</v>
-      </c>
-      <c r="D38" s="2">
-        <v>-8822</v>
-      </c>
-      <c r="E38" s="2">
-        <v>-8647</v>
-      </c>
-      <c r="F38" s="2">
-        <v>-9024</v>
-      </c>
-      <c r="G38" s="2">
-        <v>-9043</v>
-      </c>
-      <c r="H38" s="2">
-        <v>-8963</v>
-      </c>
-      <c r="I38" s="2">
-        <v>-8639</v>
-      </c>
       <c r="J38" s="2">
         <v>-8878</v>
       </c>
@@ -8011,7 +7069,7 @@
       </c>
       <c r="BJ38" s="2">
         <f t="shared" si="4"/>
-        <v>-9043</v>
+        <v>-9019</v>
       </c>
       <c r="BK38" s="2">
         <f t="shared" si="5"/>
@@ -8019,37 +7077,13 @@
       </c>
       <c r="BL38" s="2">
         <f t="shared" si="3"/>
-        <v>536</v>
+        <v>512</v>
       </c>
     </row>
     <row r="39" spans="1:64">
       <c r="A39" s="2">
         <v>-60</v>
       </c>
-      <c r="B39" s="2">
-        <v>-3970</v>
-      </c>
-      <c r="C39" s="2">
-        <v>-4019</v>
-      </c>
-      <c r="D39" s="2">
-        <v>-4018</v>
-      </c>
-      <c r="E39" s="2">
-        <v>-3918</v>
-      </c>
-      <c r="F39" s="2">
-        <v>-3984</v>
-      </c>
-      <c r="G39" s="2">
-        <v>-3911</v>
-      </c>
-      <c r="H39" s="2">
-        <v>-4007</v>
-      </c>
-      <c r="I39" s="2">
-        <v>-3984</v>
-      </c>
       <c r="J39" s="2">
         <v>-3881</v>
       </c>
@@ -8224,33 +7258,6 @@
       <c r="A40" s="2">
         <v>-50</v>
       </c>
-      <c r="B40" s="2">
-        <v>991</v>
-      </c>
-      <c r="C40" s="2">
-        <v>931</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1064</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1262</v>
-      </c>
-      <c r="F40" s="2">
-        <v>1010</v>
-      </c>
-      <c r="G40" s="2">
-        <f>--960</f>
-        <v>960</v>
-      </c>
-      <c r="H40" s="2">
-        <f>--900</f>
-        <v>900</v>
-      </c>
-      <c r="I40" s="2">
-        <f>--775</f>
-        <v>775</v>
-      </c>
       <c r="J40" s="2">
         <v>1054</v>
       </c>
@@ -8445,32 +7452,6 @@
       <c r="A41" s="2">
         <v>-40</v>
       </c>
-      <c r="B41" s="2">
-        <f>--6341</f>
-        <v>6341</v>
-      </c>
-      <c r="C41" s="2">
-        <v>5999</v>
-      </c>
-      <c r="D41" s="2">
-        <v>6130</v>
-      </c>
-      <c r="E41" s="2">
-        <f>--6304</f>
-        <v>6304</v>
-      </c>
-      <c r="F41" s="2">
-        <v>6247</v>
-      </c>
-      <c r="G41" s="2">
-        <v>6143</v>
-      </c>
-      <c r="H41" s="2">
-        <v>5836</v>
-      </c>
-      <c r="I41" s="2">
-        <v>5824</v>
-      </c>
       <c r="J41" s="2">
         <v>6215</v>
       </c>
@@ -8645,30 +7626,6 @@
       <c r="A42" s="2">
         <v>-30</v>
       </c>
-      <c r="B42" s="2">
-        <v>10466</v>
-      </c>
-      <c r="C42" s="2">
-        <v>10430</v>
-      </c>
-      <c r="D42" s="2">
-        <v>10412</v>
-      </c>
-      <c r="E42" s="2">
-        <v>10371</v>
-      </c>
-      <c r="F42" s="2">
-        <v>10521</v>
-      </c>
-      <c r="G42" s="2">
-        <v>10553</v>
-      </c>
-      <c r="H42" s="2">
-        <v>10371</v>
-      </c>
-      <c r="I42" s="2">
-        <v>10380</v>
-      </c>
       <c r="J42" s="2">
         <v>10564</v>
       </c>
@@ -8829,7 +7786,7 @@
       </c>
       <c r="BJ42" s="2">
         <f t="shared" si="4"/>
-        <v>10371</v>
+        <v>10396</v>
       </c>
       <c r="BK42" s="2">
         <f t="shared" si="5"/>
@@ -8837,37 +7794,13 @@
       </c>
       <c r="BL42" s="2">
         <f t="shared" si="3"/>
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:64">
       <c r="A43" s="2">
         <v>-20</v>
       </c>
-      <c r="B43" s="2">
-        <v>15148</v>
-      </c>
-      <c r="C43" s="2">
-        <v>15146</v>
-      </c>
-      <c r="D43" s="2">
-        <v>15152</v>
-      </c>
-      <c r="E43" s="2">
-        <v>15227</v>
-      </c>
-      <c r="F43" s="2">
-        <v>15200</v>
-      </c>
-      <c r="G43" s="2">
-        <v>15345</v>
-      </c>
-      <c r="H43" s="2">
-        <v>15190</v>
-      </c>
-      <c r="I43" s="2">
-        <v>15190</v>
-      </c>
       <c r="J43" s="2">
         <v>15373</v>
       </c>
@@ -9041,30 +7974,6 @@
     <row r="44" spans="1:64">
       <c r="A44" s="2">
         <v>-10</v>
-      </c>
-      <c r="B44" s="2">
-        <v>20125</v>
-      </c>
-      <c r="C44" s="2">
-        <v>20138</v>
-      </c>
-      <c r="D44" s="2">
-        <v>20022</v>
-      </c>
-      <c r="E44" s="2">
-        <v>20250</v>
-      </c>
-      <c r="F44" s="2">
-        <v>20067</v>
-      </c>
-      <c r="G44" s="2">
-        <v>20181</v>
-      </c>
-      <c r="H44" s="2">
-        <v>20041</v>
-      </c>
-      <c r="I44" s="2">
-        <v>20049</v>
       </c>
       <c r="J44" s="2">
         <v>20232</v>
@@ -17972,22 +16881,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H53:H55 H57:H59 H61:H63 H65:H67 H69:H71 H73:H75 H77:H79 H81:H83 H94:H96 H98:H100 H102:H104 H106:H108 H110:H112 H114:H116 H118:H120 H122:H124 C53:F55 C57:F59 C61:F63 C65:F67 C69:F71 C73:F75 C77:F79 C81:F83 C94:F96 C98:F100 C102:F104 C106:F108 C110:F112 C118:F120 C122:F124 C85:H87 C126:H128 J85:AD87 J126:AD128 J122:AD124 J118:AD120 J114:AD116 J110:AD112 J106:AD108 J102:AD104 J98:AD100 J94:AD96 J81:AD83 J77:AD79 J73:AD75 J69:AD71 J65:AD67 J61:AD63 J57:AD59 J53:AD55 C114:F116 B52:BI52">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98:I100 I102:I104 I106:I108 I110:I112 I114:I116 I118:I120 I122:I124 I126:I128 B56:BI56 B60:BI60 B64:BI64 B72:BI72 B76:BI76 B80:BI80 B84:BI84 B101:BI101 B105:BI105 B113:BI113 B117:BI117 B121:BI121 B125:BI125 B129:BI129 B68:BI68 B97:BI97 B109:BI109">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:AD91 AE88:BI88 B133:BI133">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1440</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K130:AD131">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>28</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Plugin/J16/LevelWithoutFilter/res/统计表格.xlsx
+++ b/Plugin/J16/LevelWithoutFilter/res/统计表格.xlsx
@@ -473,9 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="BE47" sqref="BE47:BM133"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
